--- a/AAII_Financials/Quarterly/ARBK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARBK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>ARBK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,35 +665,36 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
-      </c>
-      <c r="E7" s="2">
-        <v>44561</v>
       </c>
       <c r="F7" s="2">
         <v>44561</v>
@@ -711,97 +712,109 @@
         <v>43830</v>
       </c>
       <c r="K7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>31800</v>
+        <v>25700</v>
       </c>
       <c r="E8" s="3">
-        <v>51400</v>
+        <v>33100</v>
       </c>
       <c r="F8" s="3">
-        <v>51400</v>
+        <v>53500</v>
       </c>
       <c r="G8" s="3">
-        <v>37100</v>
+        <v>38600</v>
       </c>
       <c r="H8" s="3">
-        <v>9300</v>
+        <v>9700</v>
       </c>
       <c r="I8" s="3">
-        <v>13200</v>
+        <v>13800</v>
       </c>
       <c r="J8" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K8" s="3">
         <v>6800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>72900</v>
+        <v>25700</v>
       </c>
       <c r="E9" s="3">
-        <v>4800</v>
+        <v>75800</v>
       </c>
       <c r="F9" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="G9" s="3">
-        <v>19700</v>
+        <v>20500</v>
       </c>
       <c r="H9" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="I9" s="3">
-        <v>23400</v>
+        <v>24400</v>
       </c>
       <c r="J9" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K9" s="3">
         <v>5000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-41000</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>46600</v>
+        <v>-42700</v>
       </c>
       <c r="F10" s="3">
-        <v>46600</v>
+        <v>48500</v>
       </c>
       <c r="G10" s="3">
-        <v>17300</v>
+        <v>18000</v>
       </c>
       <c r="H10" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="I10" s="3">
-        <v>-10200</v>
+        <v>-10600</v>
       </c>
       <c r="J10" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K10" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +826,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,8 +856,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,16 +888,19 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3">
-        <v>-1900</v>
+      <c r="D14" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>-1900</v>
@@ -900,8 +920,11 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +952,11 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +965,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>75700</v>
+        <v>122100</v>
       </c>
       <c r="E17" s="3">
-        <v>13600</v>
+        <v>78800</v>
       </c>
       <c r="F17" s="3">
-        <v>13600</v>
+        <v>14200</v>
       </c>
       <c r="G17" s="3">
-        <v>23800</v>
+        <v>24800</v>
       </c>
       <c r="H17" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="I17" s="3">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="J17" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K17" s="3">
         <v>8900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-43900</v>
+        <v>-96400</v>
       </c>
       <c r="E18" s="3">
-        <v>37800</v>
+        <v>-45700</v>
       </c>
       <c r="F18" s="3">
-        <v>37800</v>
+        <v>39300</v>
       </c>
       <c r="G18" s="3">
-        <v>13300</v>
+        <v>13800</v>
       </c>
       <c r="H18" s="3">
         <v>1100</v>
       </c>
       <c r="I18" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,16 +1043,17 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4100</v>
+        <v>-80900</v>
       </c>
       <c r="E20" s="3">
-        <v>-1700</v>
+        <v>4200</v>
       </c>
       <c r="F20" s="3">
         <v>-1700</v>
@@ -1039,45 +1073,51 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-25900</v>
+        <v>-162700</v>
       </c>
       <c r="E21" s="3">
-        <v>57800</v>
+        <v>-26900</v>
       </c>
       <c r="F21" s="3">
-        <v>57800</v>
+        <v>45800</v>
       </c>
       <c r="G21" s="3">
-        <v>19100</v>
+        <v>19800</v>
       </c>
       <c r="H21" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="I21" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="J21" s="3">
         <v>-300</v>
       </c>
       <c r="K21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L21" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4100</v>
+        <v>18400</v>
       </c>
       <c r="E22" s="3">
-        <v>2100</v>
+        <v>4300</v>
       </c>
       <c r="F22" s="3">
         <v>2100</v>
@@ -1092,27 +1132,30 @@
         <v>200</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-44000</v>
+        <v>-195700</v>
       </c>
       <c r="E23" s="3">
-        <v>34100</v>
+        <v>-45800</v>
       </c>
       <c r="F23" s="3">
-        <v>34100</v>
+        <v>35500</v>
       </c>
       <c r="G23" s="3">
-        <v>12800</v>
+        <v>13300</v>
       </c>
       <c r="H23" s="3">
         <v>1100</v>
@@ -1121,27 +1164,30 @@
         <v>600</v>
       </c>
       <c r="J23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-7600</v>
+        <v>7500</v>
       </c>
       <c r="E24" s="3">
-        <v>6000</v>
+        <v>-7900</v>
       </c>
       <c r="F24" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="G24" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1152,11 +1198,14 @@
       <c r="J24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,22 +1233,25 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-36400</v>
+        <v>-203200</v>
       </c>
       <c r="E26" s="3">
-        <v>28100</v>
+        <v>-37800</v>
       </c>
       <c r="F26" s="3">
-        <v>28100</v>
+        <v>29200</v>
       </c>
       <c r="G26" s="3">
-        <v>8600</v>
+        <v>9000</v>
       </c>
       <c r="H26" s="3">
         <v>1100</v>
@@ -1208,27 +1260,30 @@
         <v>600</v>
       </c>
       <c r="J26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-36400</v>
+        <v>-203200</v>
       </c>
       <c r="E27" s="3">
-        <v>28100</v>
+        <v>-37800</v>
       </c>
       <c r="F27" s="3">
-        <v>28100</v>
+        <v>29200</v>
       </c>
       <c r="G27" s="3">
-        <v>8600</v>
+        <v>9000</v>
       </c>
       <c r="H27" s="3">
         <v>1100</v>
@@ -1237,13 +1292,16 @@
         <v>600</v>
       </c>
       <c r="J27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1329,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1361,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1393,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,16 +1425,19 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4100</v>
+        <v>80900</v>
       </c>
       <c r="E32" s="3">
-        <v>1700</v>
+        <v>-4200</v>
       </c>
       <c r="F32" s="3">
         <v>1700</v>
@@ -1387,22 +1457,25 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-36400</v>
+        <v>-203200</v>
       </c>
       <c r="E33" s="3">
-        <v>28100</v>
+        <v>-37800</v>
       </c>
       <c r="F33" s="3">
-        <v>28100</v>
+        <v>29200</v>
       </c>
       <c r="G33" s="3">
-        <v>8600</v>
+        <v>9000</v>
       </c>
       <c r="H33" s="3">
         <v>1100</v>
@@ -1411,13 +1484,16 @@
         <v>600</v>
       </c>
       <c r="J33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,22 +1521,25 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-36400</v>
+        <v>-203200</v>
       </c>
       <c r="E35" s="3">
-        <v>28100</v>
+        <v>-37800</v>
       </c>
       <c r="F35" s="3">
-        <v>28100</v>
+        <v>29200</v>
       </c>
       <c r="G35" s="3">
-        <v>8600</v>
+        <v>9000</v>
       </c>
       <c r="H35" s="3">
         <v>1100</v>
@@ -1469,26 +1548,29 @@
         <v>600</v>
       </c>
       <c r="J35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
-      </c>
-      <c r="E38" s="2">
-        <v>44561</v>
       </c>
       <c r="F38" s="2">
         <v>44561</v>
@@ -1506,10 +1588,13 @@
         <v>43830</v>
       </c>
       <c r="K38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1606,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,25 +1620,26 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>11000</v>
+        <v>20700</v>
       </c>
       <c r="E41" s="3">
-        <v>14100</v>
+        <v>11400</v>
       </c>
       <c r="F41" s="3">
-        <v>14100</v>
+        <v>14600</v>
       </c>
       <c r="G41" s="3">
-        <v>19100</v>
+        <v>19900</v>
       </c>
       <c r="H41" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="I41" s="3">
         <v>1600</v>
@@ -1561,10 +1648,13 @@
         <v>200</v>
       </c>
       <c r="K41" s="3">
+        <v>200</v>
+      </c>
+      <c r="L41" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1578,7 +1668,7 @@
         <v>8</v>
       </c>
       <c r="G42" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -1592,37 +1682,43 @@
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3600</v>
+        <v>800</v>
       </c>
       <c r="E43" s="3">
-        <v>3300</v>
+        <v>3700</v>
       </c>
       <c r="F43" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G43" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H43" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="I43" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="J43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K43" s="3">
         <v>2500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,141 +1746,156 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>148500</v>
+        <v>6600</v>
       </c>
       <c r="E45" s="3">
-        <v>168600</v>
+        <v>154500</v>
       </c>
       <c r="F45" s="3">
-        <v>168600</v>
+        <v>175400</v>
       </c>
       <c r="G45" s="3">
-        <v>82700</v>
+        <v>86000</v>
       </c>
       <c r="H45" s="3">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="I45" s="3">
         <v>1000</v>
       </c>
       <c r="J45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K45" s="3">
         <v>1200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>163100</v>
+        <v>28100</v>
       </c>
       <c r="E46" s="3">
-        <v>185900</v>
+        <v>169700</v>
       </c>
       <c r="F46" s="3">
-        <v>185900</v>
+        <v>193500</v>
       </c>
       <c r="G46" s="3">
-        <v>105700</v>
+        <v>109900</v>
       </c>
       <c r="H46" s="3">
-        <v>10600</v>
+        <v>11000</v>
       </c>
       <c r="I46" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="J46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K46" s="3">
         <v>3900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16200</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6100</v>
+        <v>3400</v>
       </c>
       <c r="E47" s="3">
-        <v>17000</v>
+        <v>6400</v>
       </c>
       <c r="F47" s="3">
-        <v>17000</v>
+        <v>17600</v>
       </c>
       <c r="G47" s="3">
-        <v>10300</v>
+        <v>10800</v>
       </c>
       <c r="H47" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I47" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K47" s="3">
         <v>6600</v>
       </c>
-      <c r="I47" s="3">
-        <v>6800</v>
-      </c>
-      <c r="J47" s="3">
-        <v>6600</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>188600</v>
+        <v>79800</v>
       </c>
       <c r="E48" s="3">
-        <v>133500</v>
+        <v>196300</v>
       </c>
       <c r="F48" s="3">
-        <v>133500</v>
+        <v>138900</v>
       </c>
       <c r="G48" s="3">
-        <v>50300</v>
+        <v>52300</v>
       </c>
       <c r="H48" s="3">
-        <v>21400</v>
+        <v>22200</v>
       </c>
       <c r="I48" s="3">
-        <v>16800</v>
+        <v>17500</v>
       </c>
       <c r="J48" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K48" s="3">
         <v>18400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4300</v>
+        <v>2200</v>
       </c>
       <c r="E49" s="3">
-        <v>6700</v>
+        <v>4500</v>
       </c>
       <c r="F49" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="G49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H49" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I49" s="3">
         <v>500</v>
@@ -1793,10 +1904,13 @@
         <v>600</v>
       </c>
       <c r="K49" s="3">
+        <v>600</v>
+      </c>
+      <c r="L49" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1938,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +1970,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1882,8 +2002,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2034,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>362100</v>
+        <v>113400</v>
       </c>
       <c r="E54" s="3">
-        <v>343100</v>
+        <v>376800</v>
       </c>
       <c r="F54" s="3">
-        <v>343100</v>
+        <v>357000</v>
       </c>
       <c r="G54" s="3">
-        <v>166600</v>
+        <v>173300</v>
       </c>
       <c r="H54" s="3">
-        <v>38900</v>
+        <v>40500</v>
       </c>
       <c r="I54" s="3">
-        <v>28500</v>
+        <v>29600</v>
       </c>
       <c r="J54" s="3">
+        <v>30700</v>
+      </c>
+      <c r="K54" s="3">
         <v>29500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>42300</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2082,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,80 +2096,87 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14900</v>
+        <v>3400</v>
       </c>
       <c r="E57" s="3">
-        <v>12200</v>
+        <v>15500</v>
       </c>
       <c r="F57" s="3">
-        <v>12200</v>
+        <v>12700</v>
       </c>
       <c r="G57" s="3">
-        <v>18200</v>
+        <v>18900</v>
       </c>
       <c r="H57" s="3">
         <v>700</v>
       </c>
       <c r="I57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J57" s="3">
         <v>3100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2900</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>53300</v>
+        <v>11900</v>
       </c>
       <c r="E58" s="3">
-        <v>27900</v>
+        <v>55500</v>
       </c>
       <c r="F58" s="3">
-        <v>27900</v>
+        <v>29000</v>
       </c>
       <c r="G58" s="3">
-        <v>23100</v>
+        <v>24000</v>
       </c>
       <c r="H58" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="I58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J58" s="3">
         <v>1300</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9000</v>
+        <v>9600</v>
       </c>
       <c r="E59" s="3">
-        <v>25100</v>
+        <v>9400</v>
       </c>
       <c r="F59" s="3">
-        <v>25100</v>
+        <v>26100</v>
       </c>
       <c r="G59" s="3">
-        <v>16100</v>
+        <v>16700</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
@@ -2051,56 +2188,62 @@
         <v>500</v>
       </c>
       <c r="K59" s="3">
+        <v>500</v>
+      </c>
+      <c r="L59" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>77300</v>
+        <v>25000</v>
       </c>
       <c r="E60" s="3">
-        <v>65200</v>
+        <v>80400</v>
       </c>
       <c r="F60" s="3">
-        <v>65200</v>
+        <v>67800</v>
       </c>
       <c r="G60" s="3">
-        <v>57300</v>
+        <v>59600</v>
       </c>
       <c r="H60" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="I60" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="J60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K60" s="3">
         <v>4800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>87400</v>
+        <v>66100</v>
       </c>
       <c r="E61" s="3">
-        <v>36600</v>
+        <v>90900</v>
       </c>
       <c r="F61" s="3">
-        <v>36600</v>
+        <v>38100</v>
       </c>
       <c r="G61" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="H61" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2111,19 +2254,22 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3">
-        <v>600</v>
-      </c>
       <c r="F62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
@@ -2140,8 +2286,11 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2318,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2350,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2382,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>165200</v>
+        <v>99300</v>
       </c>
       <c r="E66" s="3">
-        <v>102400</v>
+        <v>171900</v>
       </c>
       <c r="F66" s="3">
-        <v>102400</v>
+        <v>106600</v>
       </c>
       <c r="G66" s="3">
-        <v>64100</v>
+        <v>66700</v>
       </c>
       <c r="H66" s="3">
-        <v>9900</v>
+        <v>10300</v>
       </c>
       <c r="I66" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="J66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K66" s="3">
         <v>4800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2430,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2460,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2492,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2524,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2556,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>32300</v>
+        <v>-167000</v>
       </c>
       <c r="E72" s="3">
-        <v>613900</v>
+        <v>33600</v>
       </c>
       <c r="F72" s="3">
-        <v>613900</v>
+        <v>638800</v>
       </c>
       <c r="G72" s="3">
-        <v>36000</v>
+        <v>37400</v>
       </c>
       <c r="H72" s="3">
-        <v>26300</v>
+        <v>27300</v>
       </c>
       <c r="I72" s="3">
-        <v>-5300</v>
+        <v>-5500</v>
       </c>
       <c r="J72" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-5900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2620,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2652,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2684,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>197000</v>
+        <v>14100</v>
       </c>
       <c r="E76" s="3">
-        <v>240700</v>
+        <v>204900</v>
       </c>
       <c r="F76" s="3">
-        <v>240700</v>
+        <v>250400</v>
       </c>
       <c r="G76" s="3">
-        <v>102500</v>
+        <v>106600</v>
       </c>
       <c r="H76" s="3">
-        <v>29000</v>
+        <v>30200</v>
       </c>
       <c r="I76" s="3">
-        <v>24800</v>
+        <v>25800</v>
       </c>
       <c r="J76" s="3">
+        <v>25700</v>
+      </c>
+      <c r="K76" s="3">
         <v>24700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26700</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,21 +2748,24 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
-      </c>
-      <c r="E80" s="2">
-        <v>44561</v>
       </c>
       <c r="F80" s="2">
         <v>44561</v>
@@ -2591,24 +2783,27 @@
         <v>43830</v>
       </c>
       <c r="K80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-36400</v>
+        <v>-203200</v>
       </c>
       <c r="E81" s="3">
-        <v>28100</v>
+        <v>-37800</v>
       </c>
       <c r="F81" s="3">
-        <v>28100</v>
+        <v>29200</v>
       </c>
       <c r="G81" s="3">
-        <v>8600</v>
+        <v>9000</v>
       </c>
       <c r="H81" s="3">
         <v>1100</v>
@@ -2617,13 +2812,16 @@
         <v>600</v>
       </c>
       <c r="J81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +2833,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14000</v>
+        <v>14600</v>
       </c>
       <c r="E83" s="3">
-        <v>7900</v>
+        <v>14500</v>
       </c>
       <c r="F83" s="3">
-        <v>7900</v>
+        <v>8200</v>
       </c>
       <c r="G83" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="H83" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="I83" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="J83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K83" s="3">
         <v>1800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2895,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2927,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2959,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2991,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3023,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>29300</v>
+        <v>-118200</v>
       </c>
       <c r="E89" s="3">
-        <v>-36000</v>
+        <v>30500</v>
       </c>
       <c r="F89" s="3">
-        <v>-36000</v>
+        <v>-37500</v>
       </c>
       <c r="G89" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H89" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="I89" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="J89" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-11400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3071,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-42300</v>
+        <v>-2700</v>
       </c>
       <c r="E91" s="3">
-        <v>-48300</v>
+        <v>-84700</v>
       </c>
       <c r="F91" s="3">
-        <v>-48300</v>
+        <v>-84000</v>
       </c>
       <c r="G91" s="3">
-        <v>-8200</v>
+        <v>-42400</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1900</v>
+        <v>-1600</v>
       </c>
       <c r="J91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K91" s="3">
         <v>3700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3133,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3165,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100800</v>
+        <v>111800</v>
       </c>
       <c r="E94" s="3">
-        <v>-104200</v>
+        <v>-104900</v>
       </c>
       <c r="F94" s="3">
-        <v>-104200</v>
+        <v>62400</v>
       </c>
       <c r="G94" s="3">
-        <v>-59900</v>
+        <v>-62300</v>
       </c>
       <c r="H94" s="3">
         <v>700</v>
       </c>
       <c r="I94" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="J94" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K94" s="3">
         <v>3600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23600</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3213,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3243,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3275,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3307,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,25 +3339,28 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>65100</v>
+        <v>16700</v>
       </c>
       <c r="E100" s="3">
-        <v>135100</v>
+        <v>67700</v>
       </c>
       <c r="F100" s="3">
-        <v>135100</v>
+        <v>140600</v>
       </c>
       <c r="G100" s="3">
-        <v>73700</v>
+        <v>76700</v>
       </c>
       <c r="H100" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I100" s="3">
         <v>-1100</v>
@@ -3123,18 +3369,21 @@
         <v>1300</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+        <v>1300</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3300</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
+        <v>-1100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>3500</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>8</v>
@@ -3154,22 +3403,25 @@
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3100</v>
+        <v>9200</v>
       </c>
       <c r="E102" s="3">
-        <v>-5100</v>
+        <v>-3200</v>
       </c>
       <c r="F102" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="G102" s="3">
-        <v>16700</v>
+        <v>17400</v>
       </c>
       <c r="H102" s="3">
         <v>900</v>
@@ -3178,9 +3430,12 @@
         <v>1400</v>
       </c>
       <c r="J102" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-6500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-12900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARBK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARBK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>ARBK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,182 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>25700</v>
+        <v>12600</v>
       </c>
       <c r="E8" s="3">
-        <v>33100</v>
+        <v>11400</v>
       </c>
       <c r="F8" s="3">
-        <v>53500</v>
+        <v>20700</v>
       </c>
       <c r="G8" s="3">
-        <v>38600</v>
+        <v>34600</v>
       </c>
       <c r="H8" s="3">
-        <v>9700</v>
+        <v>43100</v>
       </c>
       <c r="I8" s="3">
+        <v>31100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K8" s="3">
         <v>13800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>7100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>6800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>25700</v>
+        <v>13400</v>
       </c>
       <c r="E9" s="3">
-        <v>75800</v>
+        <v>12000</v>
       </c>
       <c r="F9" s="3">
+        <v>20700</v>
+      </c>
+      <c r="G9" s="3">
+        <v>79300</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>16600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K9" s="3">
+        <v>24400</v>
+      </c>
+      <c r="L9" s="3">
+        <v>5200</v>
+      </c>
+      <c r="M9" s="3">
         <v>5000</v>
       </c>
-      <c r="G9" s="3">
-        <v>20500</v>
-      </c>
-      <c r="H9" s="3">
-        <v>6600</v>
-      </c>
-      <c r="I9" s="3">
-        <v>24400</v>
-      </c>
-      <c r="J9" s="3">
-        <v>5200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>5000</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E10" s="3">
-        <v>-42700</v>
+        <v>-600</v>
       </c>
       <c r="F10" s="3">
-        <v>48500</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>18000</v>
+        <v>-44700</v>
       </c>
       <c r="H10" s="3">
-        <v>3100</v>
+        <v>39100</v>
       </c>
       <c r="I10" s="3">
+        <v>14500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K10" s="3">
         <v>-10600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,8 +853,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -859,8 +887,14 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,72 +925,90 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>61200</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+        <v>600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>800</v>
       </c>
       <c r="F14" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+        <v>49300</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I14" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>300</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="G15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -966,72 +1018,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>122100</v>
+        <v>18900</v>
       </c>
       <c r="E17" s="3">
-        <v>78800</v>
+        <v>16800</v>
       </c>
       <c r="F17" s="3">
-        <v>14200</v>
+        <v>98400</v>
       </c>
       <c r="G17" s="3">
-        <v>24800</v>
+        <v>82400</v>
       </c>
       <c r="H17" s="3">
-        <v>8500</v>
+        <v>11400</v>
       </c>
       <c r="I17" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K17" s="3">
         <v>13000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>9300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>8900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-96400</v>
+        <v>-6300</v>
       </c>
       <c r="E18" s="3">
-        <v>-45700</v>
+        <v>-5400</v>
       </c>
       <c r="F18" s="3">
-        <v>39300</v>
+        <v>-77700</v>
       </c>
       <c r="G18" s="3">
-        <v>13800</v>
+        <v>-47800</v>
       </c>
       <c r="H18" s="3">
+        <v>31700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>11100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>900</v>
+      </c>
+      <c r="K18" s="3">
+        <v>800</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N18" s="3">
         <v>1100</v>
       </c>
-      <c r="I18" s="3">
-        <v>800</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,25 +1110,27 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-80900</v>
+        <v>-500</v>
       </c>
       <c r="E20" s="3">
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-1700</v>
+        <v>-65200</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1076,136 +1144,166 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-162700</v>
+        <v>-600</v>
       </c>
       <c r="E21" s="3">
-        <v>-26900</v>
+        <v>1000</v>
       </c>
       <c r="F21" s="3">
-        <v>45800</v>
+        <v>-134600</v>
       </c>
       <c r="G21" s="3">
-        <v>19800</v>
+        <v>-28200</v>
       </c>
       <c r="H21" s="3">
-        <v>4900</v>
+        <v>36900</v>
       </c>
       <c r="I21" s="3">
+        <v>16000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K21" s="3">
         <v>4500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>18400</v>
+        <v>3000</v>
       </c>
       <c r="E22" s="3">
-        <v>4300</v>
+        <v>3300</v>
       </c>
       <c r="F22" s="3">
-        <v>2100</v>
+        <v>14800</v>
       </c>
       <c r="G22" s="3">
-        <v>500</v>
+        <v>4500</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="I22" s="3">
+        <v>400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-195700</v>
+        <v>-9900</v>
       </c>
       <c r="E23" s="3">
-        <v>-45800</v>
+        <v>-8700</v>
       </c>
       <c r="F23" s="3">
-        <v>35500</v>
+        <v>-157700</v>
       </c>
       <c r="G23" s="3">
-        <v>13300</v>
+        <v>-47900</v>
       </c>
       <c r="H23" s="3">
+        <v>28600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>10700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>900</v>
+      </c>
+      <c r="K23" s="3">
+        <v>600</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="N23" s="3">
         <v>1100</v>
       </c>
-      <c r="I23" s="3">
-        <v>600</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7500</v>
+        <v>-2300</v>
       </c>
       <c r="E24" s="3">
-        <v>-7900</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="G24" s="3">
-        <v>4300</v>
+        <v>-8300</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+        <v>3500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1236,72 +1334,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-203200</v>
+        <v>-7500</v>
       </c>
       <c r="E26" s="3">
-        <v>-37800</v>
+        <v>-8700</v>
       </c>
       <c r="F26" s="3">
-        <v>29200</v>
+        <v>-163700</v>
       </c>
       <c r="G26" s="3">
-        <v>9000</v>
+        <v>-39600</v>
       </c>
       <c r="H26" s="3">
+        <v>23600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>900</v>
+      </c>
+      <c r="K26" s="3">
+        <v>600</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="N26" s="3">
         <v>1100</v>
       </c>
-      <c r="I26" s="3">
-        <v>600</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-203200</v>
+        <v>-7500</v>
       </c>
       <c r="E27" s="3">
-        <v>-37800</v>
+        <v>-8700</v>
       </c>
       <c r="F27" s="3">
-        <v>29200</v>
+        <v>-163700</v>
       </c>
       <c r="G27" s="3">
-        <v>9000</v>
+        <v>-39600</v>
       </c>
       <c r="H27" s="3">
+        <v>23600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>900</v>
+      </c>
+      <c r="K27" s="3">
+        <v>600</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="N27" s="3">
         <v>1100</v>
       </c>
-      <c r="I27" s="3">
-        <v>600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1332,8 +1448,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1364,8 +1486,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1396,8 +1524,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1428,25 +1562,31 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>80900</v>
+        <v>500</v>
       </c>
       <c r="E32" s="3">
-        <v>-4200</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>1700</v>
+        <v>65200</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-4500</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1460,40 +1600,52 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-203200</v>
+        <v>-7500</v>
       </c>
       <c r="E33" s="3">
-        <v>-37800</v>
+        <v>-8700</v>
       </c>
       <c r="F33" s="3">
-        <v>29200</v>
+        <v>-163700</v>
       </c>
       <c r="G33" s="3">
-        <v>9000</v>
+        <v>-39600</v>
       </c>
       <c r="H33" s="3">
+        <v>23600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>900</v>
+      </c>
+      <c r="K33" s="3">
+        <v>600</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="N33" s="3">
         <v>1100</v>
       </c>
-      <c r="I33" s="3">
-        <v>600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1524,77 +1676,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-203200</v>
+        <v>-7500</v>
       </c>
       <c r="E35" s="3">
-        <v>-37800</v>
+        <v>-8700</v>
       </c>
       <c r="F35" s="3">
-        <v>29200</v>
+        <v>-163700</v>
       </c>
       <c r="G35" s="3">
-        <v>9000</v>
+        <v>-39600</v>
       </c>
       <c r="H35" s="3">
+        <v>23600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>900</v>
+      </c>
+      <c r="K35" s="3">
+        <v>600</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="N35" s="3">
         <v>1100</v>
       </c>
-      <c r="I35" s="3">
-        <v>600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1607,8 +1777,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1621,40 +1793,48 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>20700</v>
+        <v>9100</v>
       </c>
       <c r="E41" s="3">
-        <v>11400</v>
+        <v>14200</v>
       </c>
       <c r="F41" s="3">
-        <v>14600</v>
+        <v>20100</v>
       </c>
       <c r="G41" s="3">
-        <v>19900</v>
+        <v>15900</v>
       </c>
       <c r="H41" s="3">
-        <v>2500</v>
+        <v>11800</v>
       </c>
       <c r="I41" s="3">
+        <v>16000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1667,14 +1847,14 @@
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
-        <v>1800</v>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+      <c r="I42" s="3">
+        <v>1400</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1685,40 +1865,52 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
-        <v>3700</v>
-      </c>
-      <c r="F43" s="3">
-        <v>3400</v>
-      </c>
       <c r="G43" s="3">
-        <v>2300</v>
+        <v>88500</v>
       </c>
       <c r="H43" s="3">
-        <v>1700</v>
+        <v>2700</v>
       </c>
       <c r="I43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1749,168 +1941,204 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6600</v>
+        <v>2900</v>
       </c>
       <c r="E45" s="3">
-        <v>154500</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>175400</v>
+        <v>6400</v>
       </c>
       <c r="G45" s="3">
-        <v>86000</v>
+        <v>205400</v>
       </c>
       <c r="H45" s="3">
-        <v>6800</v>
+        <v>141400</v>
       </c>
       <c r="I45" s="3">
+        <v>69300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>28100</v>
+        <v>13500</v>
       </c>
       <c r="E46" s="3">
-        <v>169700</v>
+        <v>21900</v>
       </c>
       <c r="F46" s="3">
-        <v>193500</v>
+        <v>27300</v>
       </c>
       <c r="G46" s="3">
-        <v>109900</v>
+        <v>210400</v>
       </c>
       <c r="H46" s="3">
-        <v>11000</v>
+        <v>155900</v>
       </c>
       <c r="I46" s="3">
+        <v>88600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K46" s="3">
         <v>4600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>16200</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E47" s="3">
         <v>3400</v>
       </c>
-      <c r="E47" s="3">
-        <v>6400</v>
-      </c>
       <c r="F47" s="3">
-        <v>17600</v>
+        <v>3300</v>
       </c>
       <c r="G47" s="3">
-        <v>10800</v>
+        <v>19200</v>
       </c>
       <c r="H47" s="3">
-        <v>6800</v>
+        <v>14200</v>
       </c>
       <c r="I47" s="3">
+        <v>8700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K47" s="3">
         <v>7000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>6900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>6600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>79800</v>
+        <v>70900</v>
       </c>
       <c r="E48" s="3">
-        <v>196300</v>
+        <v>71600</v>
       </c>
       <c r="F48" s="3">
-        <v>138900</v>
+        <v>77500</v>
       </c>
       <c r="G48" s="3">
-        <v>52300</v>
+        <v>309200</v>
       </c>
       <c r="H48" s="3">
-        <v>22200</v>
+        <v>112000</v>
       </c>
       <c r="I48" s="3">
+        <v>42200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>17900</v>
+      </c>
+      <c r="K48" s="3">
         <v>17500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>19100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>18400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>23700</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="E49" s="3">
-        <v>4500</v>
+        <v>2100</v>
       </c>
       <c r="F49" s="3">
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="G49" s="3">
+        <v>7600</v>
+      </c>
+      <c r="H49" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I49" s="3">
+        <v>300</v>
+      </c>
+      <c r="J49" s="3">
         <v>400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="K49" s="3">
         <v>500</v>
       </c>
-      <c r="I49" s="3">
-        <v>500</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1941,8 +2169,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1973,8 +2207,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2005,8 +2245,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2037,40 +2283,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>113400</v>
+        <v>88800</v>
       </c>
       <c r="E54" s="3">
-        <v>376800</v>
+        <v>99000</v>
       </c>
       <c r="F54" s="3">
-        <v>357000</v>
+        <v>110200</v>
       </c>
       <c r="G54" s="3">
-        <v>173300</v>
+        <v>388100</v>
       </c>
       <c r="H54" s="3">
-        <v>40500</v>
+        <v>287700</v>
       </c>
       <c r="I54" s="3">
+        <v>139700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>32600</v>
+      </c>
+      <c r="K54" s="3">
         <v>29600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>30700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>29500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>42300</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2083,8 +2341,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2097,159 +2357,185 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="E57" s="3">
-        <v>15500</v>
+        <v>7500</v>
       </c>
       <c r="F57" s="3">
-        <v>12700</v>
+        <v>3200</v>
       </c>
       <c r="G57" s="3">
-        <v>18900</v>
+        <v>22800</v>
       </c>
       <c r="H57" s="3">
-        <v>700</v>
+        <v>10300</v>
       </c>
       <c r="I57" s="3">
+        <v>15200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>500</v>
+      </c>
+      <c r="K57" s="3">
         <v>3200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2900</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11900</v>
+        <v>14400</v>
       </c>
       <c r="E58" s="3">
-        <v>55500</v>
+        <v>12500</v>
       </c>
       <c r="F58" s="3">
-        <v>29000</v>
+        <v>11600</v>
       </c>
       <c r="G58" s="3">
-        <v>24000</v>
+        <v>76300</v>
       </c>
       <c r="H58" s="3">
-        <v>4400</v>
+        <v>23400</v>
       </c>
       <c r="I58" s="3">
+        <v>19400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1300</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9600</v>
+        <v>11300</v>
       </c>
       <c r="E59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F59" s="3">
         <v>9400</v>
       </c>
-      <c r="F59" s="3">
-        <v>26100</v>
-      </c>
       <c r="G59" s="3">
-        <v>16700</v>
+        <v>26700</v>
       </c>
       <c r="H59" s="3">
+        <v>21000</v>
+      </c>
+      <c r="I59" s="3">
+        <v>13500</v>
+      </c>
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>25000</v>
+        <v>27700</v>
       </c>
       <c r="E60" s="3">
-        <v>80400</v>
+        <v>22200</v>
       </c>
       <c r="F60" s="3">
-        <v>67800</v>
+        <v>24300</v>
       </c>
       <c r="G60" s="3">
-        <v>59600</v>
+        <v>63400</v>
       </c>
       <c r="H60" s="3">
-        <v>5500</v>
+        <v>54700</v>
       </c>
       <c r="I60" s="3">
+        <v>48100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K60" s="3">
         <v>3800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>66100</v>
+        <v>59000</v>
       </c>
       <c r="E61" s="3">
-        <v>90900</v>
+        <v>63200</v>
       </c>
       <c r="F61" s="3">
-        <v>38100</v>
+        <v>64300</v>
       </c>
       <c r="G61" s="3">
-        <v>7100</v>
+        <v>41400</v>
       </c>
       <c r="H61" s="3">
-        <v>4900</v>
+        <v>30700</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2257,26 +2543,32 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8200</v>
+        <v>4300</v>
       </c>
       <c r="E62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F62" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G62" s="3">
+        <v>700</v>
+      </c>
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
-        <v>700</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2289,8 +2581,14 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2321,8 +2619,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2353,8 +2657,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2385,40 +2695,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>99300</v>
+        <v>91000</v>
       </c>
       <c r="E66" s="3">
-        <v>171900</v>
+        <v>93500</v>
       </c>
       <c r="F66" s="3">
-        <v>106600</v>
+        <v>96500</v>
       </c>
       <c r="G66" s="3">
-        <v>66700</v>
+        <v>105500</v>
       </c>
       <c r="H66" s="3">
-        <v>10300</v>
+        <v>85900</v>
       </c>
       <c r="I66" s="3">
+        <v>53800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K66" s="3">
         <v>3800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2431,8 +2753,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2463,8 +2787,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2495,8 +2825,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2527,8 +2863,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2559,40 +2901,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-167000</v>
+        <v>-174500</v>
       </c>
       <c r="E72" s="3">
-        <v>33600</v>
+        <v>-174000</v>
       </c>
       <c r="F72" s="3">
-        <v>638800</v>
+        <v>-160100</v>
       </c>
       <c r="G72" s="3">
-        <v>37400</v>
+        <v>74200</v>
       </c>
       <c r="H72" s="3">
-        <v>27300</v>
+        <v>54700</v>
       </c>
       <c r="I72" s="3">
+        <v>30200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-5500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-6200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-5900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2623,8 +2977,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2655,8 +3015,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2687,40 +3053,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14100</v>
+        <v>-2200</v>
       </c>
       <c r="E76" s="3">
-        <v>204900</v>
+        <v>5500</v>
       </c>
       <c r="F76" s="3">
-        <v>250400</v>
+        <v>13700</v>
       </c>
       <c r="G76" s="3">
-        <v>106600</v>
+        <v>282600</v>
       </c>
       <c r="H76" s="3">
-        <v>30200</v>
+        <v>201800</v>
       </c>
       <c r="I76" s="3">
+        <v>86000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>24300</v>
+      </c>
+      <c r="K76" s="3">
         <v>25800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>25700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>24700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>26700</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2751,77 +3129,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-203200</v>
+        <v>-7500</v>
       </c>
       <c r="E81" s="3">
-        <v>-37800</v>
+        <v>-8700</v>
       </c>
       <c r="F81" s="3">
-        <v>29200</v>
+        <v>-163700</v>
       </c>
       <c r="G81" s="3">
-        <v>9000</v>
+        <v>-39600</v>
       </c>
       <c r="H81" s="3">
+        <v>23600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>900</v>
+      </c>
+      <c r="K81" s="3">
+        <v>600</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="N81" s="3">
         <v>1100</v>
       </c>
-      <c r="I81" s="3">
-        <v>600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2834,40 +3230,48 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14600</v>
+        <v>6300</v>
       </c>
       <c r="E83" s="3">
-        <v>14500</v>
+        <v>6400</v>
       </c>
       <c r="F83" s="3">
         <v>8200</v>
       </c>
       <c r="G83" s="3">
-        <v>6000</v>
+        <v>15200</v>
       </c>
       <c r="H83" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K83" s="3">
         <v>3700</v>
       </c>
-      <c r="I83" s="3">
-        <v>3700</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2898,8 +3302,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2930,8 +3340,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2962,8 +3378,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2994,8 +3416,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3026,40 +3454,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-118200</v>
+        <v>2400</v>
       </c>
       <c r="E89" s="3">
-        <v>30500</v>
+        <v>-2900</v>
       </c>
       <c r="F89" s="3">
-        <v>-37500</v>
+        <v>-102600</v>
       </c>
       <c r="G89" s="3">
-        <v>2900</v>
+        <v>31900</v>
       </c>
       <c r="H89" s="3">
-        <v>-1700</v>
+        <v>-30200</v>
       </c>
       <c r="I89" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K89" s="3">
         <v>4600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-11900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-11400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3072,40 +3512,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2700</v>
+        <v>-1300</v>
       </c>
       <c r="E91" s="3">
-        <v>-84700</v>
+        <v>-2200</v>
       </c>
       <c r="F91" s="3">
-        <v>-84000</v>
+        <v>-109900</v>
       </c>
       <c r="G91" s="3">
-        <v>-42400</v>
+        <v>-115000</v>
       </c>
       <c r="H91" s="3">
-        <v>-200</v>
+        <v>-58800</v>
       </c>
       <c r="I91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>3700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-21600</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3136,8 +3584,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3168,40 +3622,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>111800</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>-104900</v>
+        <v>-300</v>
       </c>
       <c r="F94" s="3">
-        <v>62400</v>
+        <v>90100</v>
       </c>
       <c r="G94" s="3">
-        <v>-62300</v>
+        <v>-84500</v>
       </c>
       <c r="H94" s="3">
-        <v>700</v>
+        <v>-87400</v>
       </c>
       <c r="I94" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>3800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>3600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-23600</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3214,8 +3680,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3246,8 +3714,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3278,8 +3752,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3310,8 +3790,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3342,54 +3828,66 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>16700</v>
+        <v>-4700</v>
       </c>
       <c r="E100" s="3">
-        <v>67700</v>
+        <v>-3100</v>
       </c>
       <c r="F100" s="3">
-        <v>140600</v>
+        <v>-2700</v>
       </c>
       <c r="G100" s="3">
-        <v>76700</v>
+        <v>70800</v>
       </c>
       <c r="H100" s="3">
-        <v>1900</v>
+        <v>113300</v>
       </c>
       <c r="I100" s="3">
+        <v>61800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1300</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1100</v>
+        <v>-2800</v>
       </c>
       <c r="E101" s="3">
-        <v>3500</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
+        <v>500</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G101" s="3">
+        <v>2800</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>8</v>
@@ -3406,36 +3904,48 @@
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>9200</v>
+        <v>-5100</v>
       </c>
       <c r="E102" s="3">
-        <v>-3200</v>
+        <v>-5800</v>
       </c>
       <c r="F102" s="3">
-        <v>-5300</v>
+        <v>7500</v>
       </c>
       <c r="G102" s="3">
-        <v>17400</v>
+        <v>-2600</v>
       </c>
       <c r="H102" s="3">
-        <v>900</v>
+        <v>-4200</v>
       </c>
       <c r="I102" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>700</v>
+      </c>
+      <c r="K102" s="3">
         <v>1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-6800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-6500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-12900</v>
       </c>
     </row>
